--- a/results/pseudomonas_putida/Phase_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
+++ b/results/pseudomonas_putida/Phase_Study/pseudomonas_putida_carbon_source_functional_composition.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,144 +458,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.981740064446831</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.180300500834724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.48227712137487</v>
+        <v>0.2244668911335578</v>
       </c>
       <c r="C3" t="n">
-        <v>26.87813021702838</v>
+        <v>0.1779359430604982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.674457429048414</v>
+        <v>0.8896797153024912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.611170784103115</v>
+        <v>0.1122334455667789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1669449081803005</v>
+        <v>1.779359430604982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.611170784103115</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.502504173622704</v>
+        <v>1.423487544483986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.907968574635241</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.736654804270463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.363050483351235</v>
+        <v>1.122334455667789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669449081803005</v>
+        <v>4.270462633451958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.54135338345865</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>16.52754590984975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1074113856068743</v>
+        <v>0.2244668911335578</v>
       </c>
       <c r="C10" t="n">
-        <v>1.335559265442404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.618689581095596</v>
+        <v>0.1122334455667789</v>
       </c>
       <c r="C11" t="n">
-        <v>1.669449081803005</v>
+        <v>0.1779359430604982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.23415682062299</v>
+        <v>2.693602693602693</v>
       </c>
       <c r="C12" t="n">
-        <v>17.86310517529216</v>
+        <v>1.779359430604982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4489337822671157</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.067615658362989</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.313167259786477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5338078291814947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8978675645342313</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5338078291814947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.928170594837262</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.338078291814947</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.479236812570146</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.202846975088968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3367003367003367</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2244668911335578</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.122334455667789</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8896797153024912</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6734006734006733</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2244668911335578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8978675645342311</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.779359430604982</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.683501683501683</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.601423487544484</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.581369248035915</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.95729537366548</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.244668911335578</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.313167259786477</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12.68237934904602</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.03202846975089</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8978675645342313</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8896797153024912</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2244668911335578</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.01010101010101</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.067615658362989</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5338078291814947</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7856341189674524</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7117437722419928</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.122334455667789</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.95729537366548</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.244668911335578</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.244668911335578</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.234567901234568</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.948372615039282</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.362989323843415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.795735129068463</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.601423487544484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.367003367003367</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.558718861209965</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.815937149270483</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.380782918149467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2.132435465768799</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.423487544483986</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.4489337822671157</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.135231316725979</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1122334455667789</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.795735129068463</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8896797153024912</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.02020202020202</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.601423487544484</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3558718861209964</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4489337822671157</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5.948372615039282</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.270462633451957</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2244668911335578</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1779359430604982</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4489337822671157</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1779359430604982</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +1350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.6297229219143577</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +1395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1074113856068743</v>
+        <v>0.1806684733514002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -663,492 +1404,492 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.058717253839205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.966702470461869</v>
+        <v>0.2710027100271002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5008347245409015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2148227712137487</v>
+        <v>0.09033423667570009</v>
       </c>
       <c r="C6" t="n">
-        <v>2.671118530884808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.322234156820623</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001669449081803</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1074113856068743</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C8" t="n">
-        <v>1.502504173622704</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8347245409015025</v>
+        <v>4.659949622166247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2710027100271002</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8347245409015025</v>
+        <v>1.007556675062972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5008347245409015</v>
+        <v>1.133501259445844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5370569280343717</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4296455424274973</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333889816360601</v>
+        <v>0.3778337531486146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.900107411385607</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.512520868113523</v>
+        <v>0.8816120906801008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C15" t="n">
-        <v>1.168614357262103</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2148227712137487</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8347245409015025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4296455424274973</v>
+        <v>0.6323396567299007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.333889816360601</v>
+        <v>3.778337531486146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.333889816360601</v>
+        <v>1.259445843828715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.288936627282492</v>
+        <v>0.1806684733514002</v>
       </c>
       <c r="C19" t="n">
-        <v>1.168614357262103</v>
+        <v>2.644836272040302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.900107411385607</v>
+        <v>0.1806684733514002</v>
       </c>
       <c r="C20" t="n">
-        <v>1.335559265442404</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.288936627282492</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.838063439065109</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.9936766034327009</v>
       </c>
       <c r="C22" t="n">
-        <v>0.667779632721202</v>
+        <v>0.6297229219143577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8592910848549946</v>
+        <v>1.355013550135501</v>
       </c>
       <c r="C23" t="n">
-        <v>0.333889816360601</v>
+        <v>0.6297229219143577</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.7226738934056007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1669449081803005</v>
+        <v>2.267002518891688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.503759398496241</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.168614357262103</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1669449081803005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.966702470461869</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8347245409015025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.825993555316864</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C28" t="n">
-        <v>0.667779632721202</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4296455424274973</v>
+        <v>0.09033423667570009</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1669449081803005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.503759398496241</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C32" t="n">
-        <v>0.333889816360601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.288936627282492</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.255639097744361</v>
+        <v>1.084010840108401</v>
       </c>
       <c r="C34" t="n">
-        <v>1.502504173622704</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2148227712137487</v>
+        <v>1.174345076784101</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5008347245409015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.288936627282492</v>
+        <v>0.9936766034327009</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5370569280343717</v>
+        <v>2.348690153568203</v>
       </c>
       <c r="C37" t="n">
-        <v>0.333889816360601</v>
+        <v>1.63727959697733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.503759398496241</v>
+        <v>0.1806684733514002</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1669449081803005</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.396348012889366</v>
+        <v>1.355013550135501</v>
       </c>
       <c r="C39" t="n">
-        <v>0.333889816360601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5370569280343717</v>
+        <v>0.6323396567299007</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5008347245409015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.074113856068743</v>
+        <v>1.264679313459801</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1157,89 +1898,89 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.396348012889366</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C42" t="n">
-        <v>1.001669449081803</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.288936627282492</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C43" t="n">
-        <v>1.335559265442404</v>
+        <v>0.6297229219143577</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C44" t="n">
-        <v>0.333889816360601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.966702470461869</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.181525241675618</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.007556675062972</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.966702470461869</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.074113856068743</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1248,24 +1989,24 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.644468313641246</v>
+        <v>1.174345076784101</v>
       </c>
       <c r="C49" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4296455424274973</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1274,271 +2015,271 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.148227712137487</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C52" t="n">
-        <v>2.337228714524207</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.577873254564984</v>
+        <v>0.5420054200542005</v>
       </c>
       <c r="C53" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.181525241675618</v>
+        <v>0.2710027100271002</v>
       </c>
       <c r="C54" t="n">
-        <v>0.333889816360601</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.611170784103115</v>
+        <v>6.684733514001806</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>16.87657430730479</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.825993555316864</v>
+        <v>5.962059620596206</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1669449081803005</v>
+        <v>1.007556675062972</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.040816326530612</v>
+        <v>0.2710027100271002</v>
       </c>
       <c r="C57" t="n">
-        <v>3.33889816360601</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.148227712137487</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C58" t="n">
-        <v>1.001669449081803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.363050483351235</v>
+        <v>1.174345076784101</v>
       </c>
       <c r="C59" t="n">
-        <v>0.667779632721202</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.074113856068743</v>
+        <v>4.155374887082204</v>
       </c>
       <c r="C60" t="n">
-        <v>0.333889816360601</v>
+        <v>7.556675062972293</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.644468313641246</v>
+        <v>0.6323396567299007</v>
       </c>
       <c r="C61" t="n">
-        <v>1.669449081803005</v>
+        <v>0.3778337531486146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.644468313641246</v>
+        <v>1.445347786811201</v>
       </c>
       <c r="C62" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1074113856068743</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.833512352309345</v>
+        <v>1.174345076784101</v>
       </c>
       <c r="C64" t="n">
-        <v>2.170283806343907</v>
+        <v>1.511335012594458</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.329752953813104</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C65" t="n">
-        <v>2.003338898163606</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="C66" t="n">
-        <v>1.001669449081803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3.432700993676603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.333889816360601</v>
+        <v>1.007556675062972</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.322234156820623</v>
+        <v>2.529358626919603</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.7556675062972292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.155746509129968</v>
+        <v>0.3613369467028004</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.181525241675618</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8347245409015025</v>
+        <v>0.3778337531486146</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.09033423667570009</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1547,235 +2288,274 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.718582169709989</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="C72" t="n">
-        <v>1.502504173622704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>10.20776874435411</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1669449081803005</v>
+        <v>3.148614609571788</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2148227712137487</v>
+        <v>0.6323396567299007</v>
       </c>
       <c r="C74" t="n">
-        <v>0.667779632721202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.189044038668099</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C75" t="n">
-        <v>2.504173622704508</v>
+        <v>1.007556675062972</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.933404940923738</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.669449081803005</v>
+        <v>0.1259445843828715</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7518796992481203</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5008347245409015</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.181525241675618</v>
+        <v>3.071364046973803</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8347245409015025</v>
+        <v>2.015113350125945</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.322234156820623</v>
+        <v>2.258355916892502</v>
       </c>
       <c r="C79" t="n">
-        <v>2.504173622704508</v>
+        <v>1.259445843828715</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.900107411385607</v>
+        <v>0.1806684733514002</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5008347245409015</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.452201933404941</v>
+        <v>0.9033423667570009</v>
       </c>
       <c r="C81" t="n">
-        <v>20.20033388981636</v>
+        <v>0.5037783375314862</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.485499462943071</v>
+        <v>0.09033423667570009</v>
       </c>
       <c r="C82" t="n">
-        <v>12.68781302170284</v>
+        <v>1.385390428211587</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.685284640171858</v>
+        <v>1.626016260162602</v>
       </c>
       <c r="C83" t="n">
-        <v>4.006677796327212</v>
+        <v>0.2518891687657431</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5370569280343717</v>
+        <v>2.800361336946703</v>
       </c>
       <c r="C84" t="n">
-        <v>2.170283806343907</v>
+        <v>6.54911838790932</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8592910848549946</v>
+        <v>5.239385727190606</v>
       </c>
       <c r="C85" t="n">
-        <v>1.168614357262103</v>
+        <v>7.052896725440807</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.611170784103115</v>
+        <v>4.697380307136405</v>
       </c>
       <c r="C86" t="n">
-        <v>2.504173622704508</v>
+        <v>9.445843828715365</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4296455424274973</v>
+        <v>0.09033423667570009</v>
       </c>
       <c r="C87" t="n">
-        <v>1.335559265442404</v>
+        <v>0.8816120906801008</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2148227712137487</v>
+        <v>0.4516711833785004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.335559265442404</v>
+        <v>0.6297229219143577</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.806684733514002</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.133501259445844</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7556675062972292</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1806684733514002</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8816120906801008</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.255639097744361</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5.509181969949917</v>
+      <c r="B92" t="n">
+        <v>0.8130081300813009</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.518891687657431</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +2569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1817,144 +2597,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.019438444924406</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.416275430359938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.3585313174946</v>
+        <v>0.2219755826859046</v>
       </c>
       <c r="C3" t="n">
-        <v>21.43974960876369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.943844492440605</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.068857589984351</v>
+        <v>0.1589825119236884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.755939524838013</v>
+        <v>0.1109877913429523</v>
       </c>
       <c r="C5" t="n">
-        <v>1.408450704225352</v>
+        <v>1.271860095389507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.619870410367171</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.408450704225352</v>
+        <v>0.7949125596184419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1079913606911447</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.271860095389507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.375809935205183</v>
+        <v>1.331853496115427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1564945226917058</v>
+        <v>2.384737678855326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.01079913606912</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.33646322378717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2219755826859046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9389671361502347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.075593952483802</v>
+        <v>0.1109877913429523</v>
       </c>
       <c r="C11" t="n">
-        <v>3.286384976525822</v>
+        <v>0.1589825119236884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.54211663066955</v>
+        <v>1.997780244173141</v>
       </c>
       <c r="C12" t="n">
-        <v>17.37089201877934</v>
+        <v>2.543720190779014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6359300476947536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.885682574916759</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.225755166931637</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8879023307436182</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6359300476947536</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.329633740288569</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.656597774244833</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.218645948945616</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.179650238473767</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3329633740288568</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.220865704772475</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.430842607313196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6659267480577136</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3329633740288568</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4769475357710651</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9988901220865706</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.589825119236884</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.664816870144284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.430842607313196</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.885682574916759</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.543720190779014</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.44173140954495</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.225755166931637</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14.09544950055494</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10.33386327503974</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8879023307436182</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3329633740288568</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3179650238473768</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.776914539400666</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.430842607313196</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4769475357710651</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7949125596184419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.109877913429523</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.748807631160572</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.663706992230854</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4769475357710651</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.219755826859045</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5549389567147613</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6359300476947536</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.661487236403995</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6.518282988871224</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.109877913429523</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.430842607313196</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2.219755826859045</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.861685214626391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.662597114317425</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.497615262321145</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8879023307436182</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9538950715421304</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1109877913429523</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.907790143084261</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.775804661487236</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4769475357710651</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.44173140954495</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.702702702702703</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4439511653718091</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4769475357710651</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5.882352941176471</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.133545310015898</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3329633740288568</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1589825119236884</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2219755826859046</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7949125596184419</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +3489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1564945226917058</v>
+        <v>0.562429696287964</v>
       </c>
     </row>
     <row r="3">
@@ -2013,7 +3534,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1079913606911447</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2022,492 +3543,492 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.526748971193416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6259780907668232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.079913606911447</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3129890453834116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2159827213822894</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C6" t="n">
-        <v>2.503912363067293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3239740820734341</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.095461658841941</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="C8" t="n">
-        <v>1.408450704225352</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1564945226917058</v>
+        <v>3.824521934758155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4694835680751174</v>
+        <v>1.012373453318335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4694835680751174</v>
+        <v>1.012373453318335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5399568034557235</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6259780907668232</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5399568034557235</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3129890453834116</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.023758099352052</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.320813771517996</v>
+        <v>0.7874015748031495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2159827213822894</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7824726134585289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4319654427645789</v>
+        <v>1.481481481481482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3129890453834116</v>
+        <v>1.912260967379078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4694835680751174</v>
+        <v>1.124859392575928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6479481641468683</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="C19" t="n">
-        <v>1.877934272300469</v>
+        <v>2.362204724409449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.591792656587473</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="C20" t="n">
-        <v>2.034428794992175</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.403887688984881</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.721439749608764</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6259780907668232</v>
+        <v>1.124859392575928</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8639308855291578</v>
+        <v>1.893004115226337</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4694835680751174</v>
+        <v>1.124859392575928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.755939524838013</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="C24" t="n">
-        <v>1.095461658841941</v>
+        <v>1.687289088863892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5399568034557235</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.190923317683881</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1564945226917058</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8639308855291578</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9389671361502347</v>
+        <v>0.6749156355455568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.83585313174946</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7824726134585289</v>
+        <v>1.124859392575928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4319654427645789</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1564945226917058</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5399568034557235</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6259780907668232</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.755939524838013</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.511879049676026</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4694835680751174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.295896328293737</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.267818574514039</v>
+        <v>0.9053497942386831</v>
       </c>
       <c r="C34" t="n">
-        <v>2.190923317683881</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3239740820734341</v>
+        <v>1.069958847736626</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3129890453834116</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.295896328293737</v>
+        <v>0.9053497942386831</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5399568034557235</v>
+        <v>2.05761316872428</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1564945226917058</v>
+        <v>2.699662542182227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.511879049676026</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3129890453834116</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.403887688984881</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3129890453834116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9719222462203023</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1564945226917058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.187904967602592</v>
+        <v>1.152263374485597</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2516,89 +4037,89 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.403887688984881</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6259780907668232</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.83585313174946</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="C43" t="n">
-        <v>2.97339593114241</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C44" t="n">
-        <v>1.095461658841941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9719222462203023</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.187904967602592</v>
+        <v>1.152263374485597</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.474690663667042</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.079913606911447</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3129890453834116</v>
+        <v>1.462317210348707</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.187904967602592</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2607,534 +4128,573 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8639308855291578</v>
+        <v>1.152263374485597</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6259780907668232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4319654427645789</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9719222462203023</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7824726134585289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.159827213822894</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C52" t="n">
-        <v>2.190923317683881</v>
+        <v>0.562429696287964</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.591792656587473</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9389671361502347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.187904967602592</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3129890453834116</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.619870410367171</v>
+        <v>6.502057613168724</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1564945226917058</v>
+        <v>11.92350956130484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.051835853131749</v>
+        <v>5.51440329218107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3129890453834116</v>
+        <v>0.8998875140607425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.375809935205184</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C57" t="n">
-        <v>3.755868544600939</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.375809935205184</v>
+        <v>0.9053497942386831</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.943844492440605</v>
+        <v>1.39917695473251</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6259780907668232</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.079913606911447</v>
+        <v>5.020576131687243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3129890453834116</v>
+        <v>6.636670416197974</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5399568034557235</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C61" t="n">
-        <v>1.564945226917058</v>
+        <v>0.562429696287964</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.83585313174946</v>
+        <v>1.152263374485597</v>
       </c>
       <c r="C62" t="n">
-        <v>2.034428794992175</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4319654427645789</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1564945226917058</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.751619870410368</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="C64" t="n">
-        <v>1.877934272300469</v>
+        <v>1.349831271091114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.131749460043196</v>
+        <v>1.316872427983539</v>
       </c>
       <c r="C65" t="n">
-        <v>2.97339593114241</v>
+        <v>1.462317210348707</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.755939524838013</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C66" t="n">
-        <v>1.721439749608764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>4.032921810699588</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3129890453834116</v>
+        <v>1.237345331833521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4319654427645789</v>
+        <v>1.646090534979424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1564945226917058</v>
+        <v>1.574803149606299</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.563714902807776</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="C69" t="n">
-        <v>1.251956181533646</v>
+        <v>0.8998875140607425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.187904967602592</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.095461658841941</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.755939524838013</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.83585313174946</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C72" t="n">
-        <v>1.095461658841941</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>10.04115226337449</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4694835680751174</v>
+        <v>3.374578177727784</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2159827213822894</v>
+        <v>0.5761316872427984</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6259780907668232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5.399568034557236</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="C75" t="n">
-        <v>3.286384976525822</v>
+        <v>0.7874015748031495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.483801295896328</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.034428794992175</v>
+        <v>0.3374578177727784</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.755939524838013</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7824726134585289</v>
+        <v>0.2249718785151856</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.187904967602592</v>
+        <v>4.362139917695473</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7824726134585289</v>
+        <v>2.362204724409449</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3239740820734341</v>
+        <v>2.716049382716049</v>
       </c>
       <c r="C79" t="n">
-        <v>2.816901408450704</v>
+        <v>1.687289088863892</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.699784017278618</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4694835680751174</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.179265658747299</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="C81" t="n">
-        <v>11.58059467918623</v>
+        <v>0.4499437570303713</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.883369330453564</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>11.11111111111111</v>
+        <v>2.024746906636671</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.699784017278618</v>
+        <v>1.481481481481482</v>
       </c>
       <c r="C83" t="n">
-        <v>3.442879499217527</v>
+        <v>0.1124859392575928</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2159827213822894</v>
+        <v>2.880658436213992</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9389671361502347</v>
+        <v>4.611923509561304</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8639308855291578</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="C85" t="n">
-        <v>1.095461658841941</v>
+        <v>7.19910011248594</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.295896328293737</v>
+        <v>4.197530864197531</v>
       </c>
       <c r="C86" t="n">
-        <v>1.877934272300469</v>
+        <v>8.661417322834646</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1079913606911447</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C87" t="n">
-        <v>1.251956181533646</v>
+        <v>0.7874015748031495</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3239740820734341</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="C88" t="n">
-        <v>3.599374021909233</v>
+        <v>0.562429696287964</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.152263374485597</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.124859392575928</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6749156355455568</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1646090534979424</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.249718785151856</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.159827213822894</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.259780907668231</v>
+      <c r="B92" t="n">
+        <v>0.7407407407407408</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.924634420697413</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +4708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3176,144 +4736,885 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Amino acid</t>
+          <t>Acetate specific response</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.919642857142858</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Acetate utilization</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.75892857142857</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="C3" t="n">
-        <v>25.28</v>
+        <v>0.1692047377326565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Element homeostasis</t>
+          <t>Acetoin catabolism</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.455357142857143</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.96</v>
+        <v>0.1692047377326565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Energy generation</t>
+          <t>Alcohol/aromatics catabolism</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.674107142857143</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32</v>
+        <v>1.692047377326565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Genomic</t>
+          <t>Alginate biosynthesis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.92</v>
+        <v>1.692047377326565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t>Amino acid transportation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.553299492385787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secondary metabolite</t>
+          <t>Aromatic acid catabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.455357142857143</v>
+        <v>1.261467889908257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9600000000000001</v>
+        <v>4.060913705583756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stress</t>
+          <t>Benzoate catabolism</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.40625</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Structural components</t>
+          <t>Biosynthesis of lipodepsinonapeptide phytotoxins</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.004464285714286</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="C10" t="n">
-        <v>1.92</v>
+        <v>0.1692047377326565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Translation</t>
+          <t>Branched amino acid transportation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.6875</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="C11" t="n">
-        <v>1.76</v>
+        <v>0.1692047377326565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Uncharacterized</t>
+          <t>C2 carbon metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.76785714285714</v>
+        <v>2.637614678899083</v>
       </c>
       <c r="C12" t="n">
-        <v>18.72</v>
+        <v>2.199661590524535</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Cell mobility</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Chaeperone</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Citrate transportation</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.015228426395939</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fatty acid catabolism</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.096330275229358</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.030456852791878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Flagella synthesis</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>FleQ related exporters, aldehyde stress</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Fructose catabolism</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Galactose ALE specific</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.032110091743119</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5076142131979695</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Glycine Betaine Catabolism</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.784403669724771</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.245346869712352</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Glycine metabolism</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.325688073394496</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.538071065989848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Glycolate catabolism</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3440366972477065</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.146788990825688</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Homocysteine metabolism</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ICE related</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Inorganic ion transport and metabolism</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6880733944954129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6768189509306261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lactate catabolism</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3440366972477065</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Light inducible iModulon</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Metal homeostasis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Metal related response</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.605504587155963</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.692047377326565</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Muconate production study</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.605504587155963</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.030456852791878</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.86697247706422</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.538071065989848</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Multiple stress response, PP_3231-89</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_0943, hypothetical protein, 393 bp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.408256880733945</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.538071065989848</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1176 hypothetical protein, 135 bp</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_1864, hypothetical protein, 153 bp</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_2520 hypothetical protein, 117 bp</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Noise, PP_5437 hypothetical protein, 183 bp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Noise, kdpF, too small peptide</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.50592216582064</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress response</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9174311926605505</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Osmotic stress, lipoprotein, membrane</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3440366972477065</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Oxidative stress</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9174311926605505</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.522842639593909</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>PP_2260-3, sugar transport</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>PP_3636-3639</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5076142131979695</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pentose and glucuronate interconversions</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.573394495412844</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6768189509306261</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Phage related</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Polyamine metabolism</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.146788990825688</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.861252115059222</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Protein synthesis</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2.752293577981652</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pyoverdine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2.293577981651376</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Redox state homeostasis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1.261467889908257</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Ribose and lipid catabolism</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6.192660550458716</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.460236886632826</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Ribose, nicotinic acid catabolism</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.261467889908257</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.199661590524535</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Starvation response</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3.440366972477064</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.8917089678511</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Stationary phase response</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3.669724770642202</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.553299492385787</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Sugar catabolism</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1.605504587155963</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Sulfur metabolism</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.8460236886632826</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>T6SS system</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1146788990825688</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1692047377326565</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>TCA cycle</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1.605504587155963</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.015228426395939</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Translation</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.94954128440367</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.692047377326565</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Triethylamine hydrogen sulfate stress</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.338409475465313</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>TurA deletion</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>TurB deletion</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Tyrosine metabolism</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6.536697247706423</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.737732656514382</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>mfsR related</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2293577981651376</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>potentially iron metabolism</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.573394495412844</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.338409475465313</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +5628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16</v>
+        <v>0.6435006435006435</v>
       </c>
     </row>
     <row r="3">
@@ -3372,7 +5673,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1116071428571428</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3381,349 +5682,349 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.042016806722689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.004464285714286</v>
+        <v>0.2801120448179272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.227678571428571</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C6" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2232142857142857</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1116071428571428</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.28</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.32</v>
+        <v>0.9009009009009009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8</v>
+        <v>0.9009009009009009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4464285714285714</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.32</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4464285714285714</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.790178571428572</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.88</v>
+        <v>1.02960102960103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.3734827264239029</v>
       </c>
       <c r="C15" t="n">
-        <v>1.12</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.3734827264239029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4464285714285714</v>
+        <v>1.027077497665733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.32</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.5602240896358543</v>
       </c>
       <c r="C18" t="n">
-        <v>0.48</v>
+        <v>1.287001287001287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.227678571428571</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C19" t="n">
-        <v>1.92</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.450892857142857</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C20" t="n">
-        <v>1.92</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.339285714285714</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.56</v>
+        <v>0.3861003861003861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.64</v>
+        <v>1.287001287001287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C23" t="n">
-        <v>0.32</v>
+        <v>1.02960102960103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.7469654528478058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.96</v>
+        <v>2.187902187902188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.12</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.004464285714286</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8</v>
+        <v>0.6435006435006435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.897321428571428</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="C28" t="n">
-        <v>0.48</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5580357142857143</v>
+        <v>0.5602240896358543</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -3732,141 +6033,141 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.78125</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.5625</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C32" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.116071428571429</v>
+        <v>0.2801120448179272</v>
       </c>
       <c r="C33" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.34375</v>
+        <v>1.027077497665733</v>
       </c>
       <c r="C34" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2232142857142857</v>
+        <v>1.213818860877685</v>
       </c>
       <c r="C35" t="n">
-        <v>0.48</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.339285714285714</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5580357142857143</v>
+        <v>2.054154995331466</v>
       </c>
       <c r="C37" t="n">
-        <v>0.32</v>
+        <v>2.445302445302445</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.339285714285714</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C38" t="n">
-        <v>0.16</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.450892857142857</v>
+        <v>1.400560224089636</v>
       </c>
       <c r="C39" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5580357142857143</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.48</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.227678571428571</v>
+        <v>1.120448179271709</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3875,89 +6176,89 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.48</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.339285714285714</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C43" t="n">
-        <v>1.12</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C44" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.004464285714286</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.227678571428571</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.02960102960103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.116071428571429</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.16</v>
+        <v>0.6435006435006435</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.116071428571429</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3966,24 +6267,24 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6696428571428571</v>
+        <v>1.213818860877685</v>
       </c>
       <c r="C49" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -3992,508 +6293,547 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3348214285714285</v>
+        <v>0.8403361344537815</v>
       </c>
       <c r="C51" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.232142857142857</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C52" t="n">
-        <v>2.24</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.678571428571428</v>
+        <v>0.5602240896358543</v>
       </c>
       <c r="C53" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.227678571428571</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C54" t="n">
-        <v>0.32</v>
+        <v>0.3861003861003861</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.674107142857143</v>
+        <v>6.909430438842204</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>17.24581724581725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.897321428571428</v>
+        <v>5.788982259570495</v>
       </c>
       <c r="C56" t="n">
-        <v>0.16</v>
+        <v>1.158301158301158</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.120535714285714</v>
+        <v>0.2801120448179272</v>
       </c>
       <c r="C57" t="n">
-        <v>3.2</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.232142857142857</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C58" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.34375</v>
+        <v>1.120448179271709</v>
       </c>
       <c r="C59" t="n">
-        <v>1.44</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.116071428571429</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32</v>
+        <v>7.078507078507079</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.227678571428571</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C61" t="n">
-        <v>1.6</v>
+        <v>0.3861003861003861</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6696428571428571</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="C62" t="n">
-        <v>1.12</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1116071428571428</v>
+        <v>0.7469654528478058</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.022321428571429</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="C64" t="n">
-        <v>4.32</v>
+        <v>1.544401544401544</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.013392857142857</v>
+        <v>0.4668534080298786</v>
       </c>
       <c r="C65" t="n">
-        <v>1.92</v>
+        <v>0.3861003861003861</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.78125</v>
+        <v>0.3734827264239029</v>
       </c>
       <c r="C66" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>5.228758169934641</v>
       </c>
       <c r="C67" t="n">
-        <v>0.48</v>
+        <v>1.544401544401544</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4464285714285714</v>
+        <v>1.774042950513539</v>
       </c>
       <c r="C68" t="n">
-        <v>0.16</v>
+        <v>0.7722007722007722</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.357142857142857</v>
+        <v>0.3734827264239029</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.6435006435006435</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.227678571428571</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.78125</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.32</v>
+        <v>0.3861003861003861</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.785714285714286</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C72" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>10.55088702147526</v>
       </c>
       <c r="C73" t="n">
-        <v>0.32</v>
+        <v>2.316602316602316</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2232142857142857</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.241071428571429</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C75" t="n">
-        <v>2.24</v>
+        <v>0.7722007722007722</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.674107142857143</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.28</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.78125</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.48</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.227678571428571</v>
+        <v>2.987861811391223</v>
       </c>
       <c r="C78" t="n">
-        <v>0.48</v>
+        <v>2.316602316602316</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3348214285714285</v>
+        <v>1.493930905695612</v>
       </c>
       <c r="C79" t="n">
-        <v>2.24</v>
+        <v>1.673101673101673</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.790178571428572</v>
+        <v>0.1867413632119514</v>
       </c>
       <c r="C80" t="n">
-        <v>0.48</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.375</v>
+        <v>0.9337068160597572</v>
       </c>
       <c r="C81" t="n">
-        <v>20.16</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.151785714285714</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C82" t="n">
-        <v>10.88</v>
+        <v>1.801801801801802</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.013392857142857</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="C83" t="n">
-        <v>4.64</v>
+        <v>0.2574002574002574</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5580357142857143</v>
+        <v>2.427637721755369</v>
       </c>
       <c r="C84" t="n">
-        <v>1.44</v>
+        <v>6.692406692406692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1116071428571428</v>
+        <v>5.602240896358544</v>
       </c>
       <c r="C85" t="n">
-        <v>1.12</v>
+        <v>7.335907335907336</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.897321428571428</v>
+        <v>4.855275443510738</v>
       </c>
       <c r="C86" t="n">
-        <v>1.92</v>
+        <v>9.78120978120978</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.09337068160597572</v>
       </c>
       <c r="C87" t="n">
-        <v>1.28</v>
+        <v>0.7722007722007722</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2232142857142857</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.48</v>
+        <v>0.5148005148005148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2.427637721755369</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.158301158301158</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>S_Xenobiotic_tolerance</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.6435006435006435</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>S_tRNA_Charging</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1867413632119514</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1287001287001287</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
           <t>Unassigned</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>2.232142857142857</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4.16</v>
+      <c r="B92" t="n">
+        <v>0.7469654528478058</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.187902187902188</v>
       </c>
     </row>
   </sheetData>
